--- a/company.xlsx
+++ b/company.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Entreprises</t>
   </si>
@@ -29,75 +29,39 @@
     <t>Nom Euronext</t>
   </si>
   <si>
-    <t>Remarques</t>
-  </si>
-  <si>
     <t>Accorhotel</t>
   </si>
   <si>
-    <t>Cours fluctuant autour d'une moyenne depuis au moins 5 ans. Relativement stable.</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Air Liquide</t>
-  </si>
-  <si>
     <t>Airbus Group</t>
   </si>
   <si>
     <t>AIR</t>
   </si>
   <si>
-    <t>Des creux de faible intensité en général mais une augmentation constante du cours de l'action</t>
-  </si>
-  <si>
     <t>AKA</t>
   </si>
   <si>
     <t>AKKA Technologies</t>
   </si>
   <si>
-    <t>Une augmentation du coût de l'action depuis 5 ans avec des creux d'au moins 10%</t>
-  </si>
-  <si>
-    <t>Alstom</t>
-  </si>
-  <si>
     <t>ATE</t>
   </si>
   <si>
     <t>Alten</t>
   </si>
   <si>
-    <t>Augmentation avec des bons creux.</t>
-  </si>
-  <si>
-    <t>Arkema</t>
-  </si>
-  <si>
     <t>AXA</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Cours assez faible : 22 euros mais très stable depuis 5 ans minimum (creux comme hauts)</t>
-  </si>
-  <si>
-    <t>ASML Holding (constante augmentation, très peu de creux)</t>
-  </si>
-  <si>
     <t>Capgemini</t>
   </si>
   <si>
     <t>CAP</t>
   </si>
   <si>
-    <t>Danone</t>
-  </si>
-  <si>
     <t>Faurecia</t>
   </si>
   <si>
@@ -105,9 +69,6 @@
   </si>
   <si>
     <t>GTT</t>
-  </si>
-  <si>
-    <t>Neonen (jeune entreprise à surveiller)</t>
   </si>
   <si>
     <t>PSA groupe</t>
@@ -475,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,124 +454,86 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
